--- a/spliced/falling/2023-03-25_18-02-51/data_selected.xlsx
+++ b/spliced/falling/2023-03-25_18-02-51/data_selected.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H22"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1035,34 +1035,6 @@
         <v>0.0861319974064827</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" t="n">
-        <v>2000</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>falling</t>
-        </is>
-      </c>
-      <c r="C22" t="n">
-        <v>-0.525787353515625</v>
-      </c>
-      <c r="D22" t="n">
-        <v>1.078789949417114</v>
-      </c>
-      <c r="E22" t="n">
-        <v>-1.021092414855957</v>
-      </c>
-      <c r="F22" t="n">
-        <v>-0.0229074470698833</v>
-      </c>
-      <c r="G22" t="n">
-        <v>0.0600175112485885</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0.0545197241008281</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/spliced/falling/2023-03-25_18-02-51/data_selected.xlsx
+++ b/spliced/falling/2023-03-25_18-02-51/data_selected.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:H29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -485,22 +485,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>-0.9185628890991212</v>
+        <v>-0.7498788833618164</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8159165382385254</v>
+        <v>0.7729501724243164</v>
       </c>
       <c r="E2" t="n">
-        <v>-1.254562854766846</v>
+        <v>-1.214103698730469</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.0229074470698833</v>
+        <v>-0.0186313893646001</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0265726372599601</v>
+        <v>-0.1148426681756973</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0036651915870606</v>
+        <v>0.057115901261568</v>
       </c>
     </row>
     <row r="3">
@@ -513,22 +513,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>-0.8128528594970703</v>
+        <v>-0.8813939094543457</v>
       </c>
       <c r="D3" t="n">
-        <v>0.7384524345397949</v>
+        <v>0.8021388053894043</v>
       </c>
       <c r="E3" t="n">
-        <v>-1.323878526687622</v>
+        <v>-1.258926272392273</v>
       </c>
       <c r="F3" t="n">
-        <v>0.011148290708661</v>
+        <v>0.0178678091615438</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0045814891345798</v>
+        <v>-0.1070541366934776</v>
       </c>
       <c r="H3" t="n">
-        <v>-0.0197004042565822</v>
+        <v>0.1860084682703018</v>
       </c>
     </row>
     <row r="4">
@@ -541,22 +541,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>-0.5396947860717773</v>
+        <v>-0.6222906112670898</v>
       </c>
       <c r="D4" t="n">
-        <v>0.4983515739440918</v>
+        <v>0.7483844757080078</v>
       </c>
       <c r="E4" t="n">
-        <v>-2.386690616607666</v>
+        <v>-1.280380129814148</v>
       </c>
       <c r="F4" t="n">
-        <v>0.0502436682581901</v>
+        <v>-0.007941247895359899</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.0682641938328743</v>
+        <v>0.0074830991216003</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0099265603348612</v>
+        <v>0.0245873257517814</v>
       </c>
     </row>
     <row r="5">
@@ -569,22 +569,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>-0.1267647743225097</v>
+        <v>-0.7319130897521973</v>
       </c>
       <c r="D5" t="n">
-        <v>0.3085379600524902</v>
+        <v>0.7634215354919434</v>
       </c>
       <c r="E5" t="n">
-        <v>-2.642498016357422</v>
+        <v>-1.176308631896973</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.0494800843298435</v>
+        <v>-0.039248090237379</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.3627012372016907</v>
+        <v>-0.008552113547921099</v>
       </c>
       <c r="H5" t="n">
-        <v>0.144622340798378</v>
+        <v>0.0209221355617046</v>
       </c>
     </row>
     <row r="6">
@@ -597,22 +597,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>-0.2359266281127929</v>
+        <v>-0.568336009979248</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.2183656692504882</v>
+        <v>0.7112784385681152</v>
       </c>
       <c r="E6" t="n">
-        <v>-3.997431516647339</v>
+        <v>-1.411303043365478</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.0519235469400882</v>
+        <v>0.00167987938039</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.6624833345413208</v>
+        <v>-0.0282525178045034</v>
       </c>
       <c r="H6" t="n">
-        <v>0.2745839357376098</v>
+        <v>0.0545197241008281</v>
       </c>
     </row>
     <row r="7">
@@ -625,22 +625,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>-0.7616920471191406</v>
+        <v>-0.4251332283020019</v>
       </c>
       <c r="D7" t="n">
-        <v>-1.078659534454346</v>
+        <v>0.7228684425354004</v>
       </c>
       <c r="E7" t="n">
-        <v>-5.043187141418457</v>
+        <v>-1.317938923835754</v>
       </c>
       <c r="F7" t="n">
-        <v>0.4827362596988678</v>
+        <v>0.00167987938039</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.633009135723114</v>
+        <v>-0.0485637858510017</v>
       </c>
       <c r="H7" t="n">
-        <v>0.4114177525043487</v>
+        <v>0.0387899428606033</v>
       </c>
     </row>
     <row r="8">
@@ -653,22 +653,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>-2.656810522079468</v>
+        <v>-0.824821949005127</v>
       </c>
       <c r="D8" t="n">
-        <v>-2.278046607971191</v>
+        <v>0.7479877471923828</v>
       </c>
       <c r="E8" t="n">
-        <v>-4.701850414276123</v>
+        <v>-1.330062508583069</v>
       </c>
       <c r="F8" t="n">
-        <v>0.427911102771759</v>
+        <v>0.0103847095742821</v>
       </c>
       <c r="G8" t="n">
-        <v>0.3917173445224762</v>
+        <v>0.0097738439217209</v>
       </c>
       <c r="H8" t="n">
-        <v>0.2205223590135574</v>
+        <v>-0.0050396383740007</v>
       </c>
     </row>
     <row r="9">
@@ -681,22 +681,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>-4.357179164886475</v>
+        <v>-0.9185628890991212</v>
       </c>
       <c r="D9" t="n">
-        <v>-1.795724391937256</v>
+        <v>0.8159165382385254</v>
       </c>
       <c r="E9" t="n">
-        <v>-4.692870140075684</v>
+        <v>-1.254562854766846</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1753183305263519</v>
+        <v>-0.0229074470698833</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8854491710662842</v>
+        <v>0.0265726372599601</v>
       </c>
       <c r="H9" t="n">
-        <v>-0.3863722681999206</v>
+        <v>0.0036651915870606</v>
       </c>
     </row>
     <row r="10">
@@ -709,22 +709,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>-2.303323268890381</v>
+        <v>-0.8128528594970703</v>
       </c>
       <c r="D10" t="n">
-        <v>-1.950790405273437</v>
+        <v>0.7384524345397949</v>
       </c>
       <c r="E10" t="n">
-        <v>-3.430110692977905</v>
+        <v>-1.323878526687622</v>
       </c>
       <c r="F10" t="n">
-        <v>0.0439822971820831</v>
+        <v>0.011148290708661</v>
       </c>
       <c r="G10" t="n">
-        <v>1.484707951545715</v>
+        <v>0.0045814891345798</v>
       </c>
       <c r="H10" t="n">
-        <v>-1.550223231315613</v>
+        <v>-0.0197004042565822</v>
       </c>
     </row>
     <row r="11">
@@ -737,22 +737,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>-4.76627254486084</v>
+        <v>-0.5396947860717773</v>
       </c>
       <c r="D11" t="n">
-        <v>-2.148142337799072</v>
+        <v>0.4983515739440918</v>
       </c>
       <c r="E11" t="n">
-        <v>-2.799470901489258</v>
+        <v>-2.386690616607666</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.4473060667514801</v>
+        <v>0.0502436682581901</v>
       </c>
       <c r="G11" t="n">
-        <v>-2.502867698669434</v>
+        <v>-0.0682641938328743</v>
       </c>
       <c r="H11" t="n">
-        <v>-7.500508785247803</v>
+        <v>0.0099265603348612</v>
       </c>
     </row>
     <row r="12">
@@ -765,22 +765,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>-5.706301212310791</v>
+        <v>-0.1267647743225097</v>
       </c>
       <c r="D12" t="n">
-        <v>-2.392673492431641</v>
+        <v>0.3085379600524902</v>
       </c>
       <c r="E12" t="n">
-        <v>3.553245782852173</v>
+        <v>-2.642498016357422</v>
       </c>
       <c r="F12" t="n">
-        <v>-1.311222195625305</v>
+        <v>-0.0494800843298435</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.5021312236785889</v>
+        <v>-0.3627012372016907</v>
       </c>
       <c r="H12" t="n">
-        <v>-1.749059915542602</v>
+        <v>0.144622340798378</v>
       </c>
     </row>
     <row r="13">
@@ -793,22 +793,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>3.05734920501709</v>
+        <v>-0.2359266281127929</v>
       </c>
       <c r="D13" t="n">
-        <v>-6.071773529052734</v>
+        <v>-0.2183656692504882</v>
       </c>
       <c r="E13" t="n">
-        <v>0.5925030708312988</v>
+        <v>-3.997431516647339</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.0354301854968071</v>
+        <v>-0.0519235469400882</v>
       </c>
       <c r="G13" t="n">
-        <v>0.5714644193649292</v>
+        <v>-0.6624833345413208</v>
       </c>
       <c r="H13" t="n">
-        <v>0.3466660380363464</v>
+        <v>0.2745839357376098</v>
       </c>
     </row>
     <row r="14">
@@ -821,22 +821,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>-0.7244548797607422</v>
+        <v>-0.7616920471191406</v>
       </c>
       <c r="D14" t="n">
-        <v>0.7260329723358154</v>
+        <v>-1.078659534454346</v>
       </c>
       <c r="E14" t="n">
-        <v>-0.8456218242645264</v>
+        <v>-5.043187141418457</v>
       </c>
       <c r="F14" t="n">
-        <v>0.0313068442046642</v>
+        <v>0.4827362596988678</v>
       </c>
       <c r="G14" t="n">
-        <v>1.005331516265869</v>
+        <v>-0.633009135723114</v>
       </c>
       <c r="H14" t="n">
-        <v>1.156062483787537</v>
+        <v>0.4114177525043487</v>
       </c>
     </row>
     <row r="15">
@@ -849,22 +849,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>-0.8577280044555664</v>
+        <v>-2.656810522079468</v>
       </c>
       <c r="D15" t="n">
-        <v>1.746235489845276</v>
+        <v>-2.278046607971191</v>
       </c>
       <c r="E15" t="n">
-        <v>-1.253829836845398</v>
+        <v>-4.701850414276123</v>
       </c>
       <c r="F15" t="n">
-        <v>0.0287106670439243</v>
+        <v>0.427911102771759</v>
       </c>
       <c r="G15" t="n">
-        <v>0.3336851298809051</v>
+        <v>0.3917173445224762</v>
       </c>
       <c r="H15" t="n">
-        <v>0.0453567430377006</v>
+        <v>0.2205223590135574</v>
       </c>
     </row>
     <row r="16">
@@ -877,22 +877,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>-0.9032430648803712</v>
+        <v>-4.357179164886475</v>
       </c>
       <c r="D16" t="n">
-        <v>0.7269128561019897</v>
+        <v>-1.795724391937256</v>
       </c>
       <c r="E16" t="n">
-        <v>-1.814414024353028</v>
+        <v>-4.692870140075684</v>
       </c>
       <c r="F16" t="n">
-        <v>0.0639881342649459</v>
+        <v>0.1753183305263519</v>
       </c>
       <c r="G16" t="n">
-        <v>0.8878926634788513</v>
+        <v>0.8854491710662842</v>
       </c>
       <c r="H16" t="n">
-        <v>0.5963571667671204</v>
+        <v>-0.3863722681999206</v>
       </c>
     </row>
     <row r="17">
@@ -905,22 +905,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>0.3531332015991211</v>
+        <v>-2.303323268890381</v>
       </c>
       <c r="D17" t="n">
-        <v>3.250727415084839</v>
+        <v>-1.950790405273437</v>
       </c>
       <c r="E17" t="n">
-        <v>-0.5509147644042969</v>
+        <v>-3.430110692977905</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1010981947183609</v>
+        <v>0.0439822971820831</v>
       </c>
       <c r="G17" t="n">
-        <v>-0.2167044430971145</v>
+        <v>1.484707951545715</v>
       </c>
       <c r="H17" t="n">
-        <v>-0.2678644061088562</v>
+        <v>-1.550223231315613</v>
       </c>
     </row>
     <row r="18">
@@ -933,22 +933,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>-0.1614398956298828</v>
+        <v>-4.76627254486084</v>
       </c>
       <c r="D18" t="n">
-        <v>0.2837758064270019</v>
+        <v>-2.148142337799072</v>
       </c>
       <c r="E18" t="n">
-        <v>-2.02338171005249</v>
+        <v>-2.799470901489258</v>
       </c>
       <c r="F18" t="n">
-        <v>0.08964447677135461</v>
+        <v>-0.4473060667514801</v>
       </c>
       <c r="G18" t="n">
-        <v>-0.2109012305736541</v>
+        <v>-2.502867698669434</v>
       </c>
       <c r="H18" t="n">
-        <v>0.0058032199740409</v>
+        <v>-7.500508785247803</v>
       </c>
     </row>
     <row r="19">
@@ -961,22 +961,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>-0.5078344345092773</v>
+        <v>-5.706301212310791</v>
       </c>
       <c r="D19" t="n">
-        <v>0.6439783573150635</v>
+        <v>-2.392673492431641</v>
       </c>
       <c r="E19" t="n">
-        <v>-1.895825386047364</v>
+        <v>3.553245782852173</v>
       </c>
       <c r="F19" t="n">
-        <v>-0.0484110713005065</v>
+        <v>-1.311222195625305</v>
       </c>
       <c r="G19" t="n">
-        <v>0.1492038369178772</v>
+        <v>-0.5021312236785889</v>
       </c>
       <c r="H19" t="n">
-        <v>0.1434006094932556</v>
+        <v>-1.749059915542602</v>
       </c>
     </row>
     <row r="20">
@@ -989,22 +989,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>-0.4796314239501953</v>
+        <v>3.05734920501709</v>
       </c>
       <c r="D20" t="n">
-        <v>0.7996485829353333</v>
+        <v>-6.071773529052734</v>
       </c>
       <c r="E20" t="n">
-        <v>-0.4695221781730652</v>
+        <v>0.5925030708312988</v>
       </c>
       <c r="F20" t="n">
-        <v>-0.1841758787631988</v>
+        <v>-0.0354301854968071</v>
       </c>
       <c r="G20" t="n">
-        <v>0.1082758679986</v>
+        <v>0.5714644193649292</v>
       </c>
       <c r="H20" t="n">
-        <v>0.0047342055477201</v>
+        <v>0.3466660380363464</v>
       </c>
     </row>
     <row r="21">
@@ -1017,22 +1017,246 @@
         </is>
       </c>
       <c r="C21" t="n">
+        <v>-0.7244548797607422</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0.7260329723358154</v>
+      </c>
+      <c r="E21" t="n">
+        <v>-0.8456218242645264</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0.0313068442046642</v>
+      </c>
+      <c r="G21" t="n">
+        <v>1.005331516265869</v>
+      </c>
+      <c r="H21" t="n">
+        <v>1.156062483787537</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>2000</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>falling</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>-0.8577280044555664</v>
+      </c>
+      <c r="D22" t="n">
+        <v>1.746235489845276</v>
+      </c>
+      <c r="E22" t="n">
+        <v>-1.253829836845398</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0.0287106670439243</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.3336851298809051</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0.0453567430377006</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>2100</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>falling</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>-0.9032430648803712</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0.7269128561019897</v>
+      </c>
+      <c r="E23" t="n">
+        <v>-1.814414024353028</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0.0639881342649459</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0.8878926634788513</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0.5963571667671204</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>2200</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>falling</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>0.3531332015991211</v>
+      </c>
+      <c r="D24" t="n">
+        <v>3.250727415084839</v>
+      </c>
+      <c r="E24" t="n">
+        <v>-0.5509147644042969</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0.1010981947183609</v>
+      </c>
+      <c r="G24" t="n">
+        <v>-0.2167044430971145</v>
+      </c>
+      <c r="H24" t="n">
+        <v>-0.2678644061088562</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>2300</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>falling</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>-0.1614398956298828</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0.2837758064270019</v>
+      </c>
+      <c r="E25" t="n">
+        <v>-2.02338171005249</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0.08964447677135461</v>
+      </c>
+      <c r="G25" t="n">
+        <v>-0.2109012305736541</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0.0058032199740409</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>2400</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>falling</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>-0.5078344345092773</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0.6439783573150635</v>
+      </c>
+      <c r="E26" t="n">
+        <v>-1.895825386047364</v>
+      </c>
+      <c r="F26" t="n">
+        <v>-0.0484110713005065</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0.1492038369178772</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0.1434006094932556</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>2500</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>falling</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>-0.4796314239501953</v>
+      </c>
+      <c r="D27" t="n">
+        <v>0.7996485829353333</v>
+      </c>
+      <c r="E27" t="n">
+        <v>-0.4695221781730652</v>
+      </c>
+      <c r="F27" t="n">
+        <v>-0.1841758787631988</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0.1082758679986</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0.0047342055477201</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>2600</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>falling</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
         <v>-0.5036382675170898</v>
       </c>
-      <c r="D21" t="n">
+      <c r="D28" t="n">
         <v>1.3280930519104</v>
       </c>
-      <c r="E21" t="n">
+      <c r="E28" t="n">
         <v>-1.352860689163208</v>
       </c>
-      <c r="F21" t="n">
+      <c r="F28" t="n">
         <v>-0.102472648024559</v>
       </c>
-      <c r="G21" t="n">
+      <c r="G28" t="n">
         <v>-0.0048869219608604</v>
       </c>
-      <c r="H21" t="n">
+      <c r="H28" t="n">
         <v>0.0861319974064827</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>2700</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>falling</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>-0.525787353515625</v>
+      </c>
+      <c r="D29" t="n">
+        <v>1.078789949417114</v>
+      </c>
+      <c r="E29" t="n">
+        <v>-1.021092414855957</v>
+      </c>
+      <c r="F29" t="n">
+        <v>-0.0229074470698833</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0.0600175112485885</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0.0545197241008281</v>
       </c>
     </row>
   </sheetData>
